--- a/AD PHYLA-ORDER LVL copy.xlsx
+++ b/AD PHYLA-ORDER LVL copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="58">
   <si>
     <t>Controls</t>
   </si>
@@ -188,6 +188,12 @@
   <si>
     <t>SUM_Actinobacteria</t>
   </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -405,12 +411,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -450,7 +491,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -475,6 +515,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2875,24 +2931,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="41487360"/>
-        <c:axId val="41501440"/>
+        <c:axId val="39679872"/>
+        <c:axId val="39681408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41487360"/>
+        <c:axId val="39679872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41501440"/>
+        <c:crossAx val="39681408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41501440"/>
+        <c:axId val="39681408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +2956,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41487360"/>
+        <c:crossAx val="39679872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2911,9 +2967,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65056105628824401"/>
+          <c:x val="0.65056105628824412"/>
           <c:y val="7.3835969225517772E-2"/>
-          <c:w val="0.33772577252744912"/>
+          <c:w val="0.33772577252744923"/>
           <c:h val="0.85232806154896468"/>
         </c:manualLayout>
       </c:layout>
@@ -3248,7 +3304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7248,76 +7304,76 @@
       </c>
     </row>
     <row r="60" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="41">
+      <c r="B60" s="40">
         <v>35.9244469</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="40">
         <v>67.104438299999998</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D60" s="40">
         <v>27.6331639</v>
       </c>
-      <c r="E60" s="42">
+      <c r="E60" s="41">
         <v>26.916675800000004</v>
       </c>
-      <c r="F60" s="42">
+      <c r="F60" s="41">
         <v>15.006915599999999</v>
       </c>
-      <c r="G60" s="43">
+      <c r="G60" s="42">
         <v>33.314918400000003</v>
       </c>
-      <c r="H60" s="41">
+      <c r="H60" s="40">
         <v>44.309919600000008</v>
       </c>
-      <c r="I60" s="41">
+      <c r="I60" s="40">
         <v>51.635689599999999</v>
       </c>
-      <c r="J60" s="41">
+      <c r="J60" s="40">
         <v>35.790823600000003</v>
       </c>
-      <c r="K60" s="41">
+      <c r="K60" s="40">
         <v>43.6807996</v>
       </c>
-      <c r="L60" s="41">
+      <c r="L60" s="40">
         <v>38.257858900000002</v>
       </c>
-      <c r="M60" s="43">
+      <c r="M60" s="42">
         <v>28.519593700000001</v>
       </c>
-      <c r="N60" s="43">
+      <c r="N60" s="42">
         <v>12.5090059</v>
       </c>
-      <c r="O60" s="43">
+      <c r="O60" s="42">
         <v>10.6318818</v>
       </c>
-      <c r="P60" s="41">
+      <c r="P60" s="40">
         <v>87.517739599999999</v>
       </c>
-      <c r="Q60" s="41">
+      <c r="Q60" s="40">
         <v>69.197087700000012</v>
       </c>
-      <c r="R60" s="41">
+      <c r="R60" s="40">
         <v>64.580369899999994</v>
       </c>
-      <c r="S60" s="41">
+      <c r="S60" s="40">
         <v>55.4053544</v>
       </c>
-      <c r="T60" s="43">
+      <c r="T60" s="42">
         <v>26.962963000000002</v>
       </c>
-      <c r="U60" s="41">
+      <c r="U60" s="40">
         <v>47.453640499999999</v>
       </c>
-      <c r="V60" s="41">
+      <c r="V60" s="40">
         <v>57.9606773</v>
       </c>
-      <c r="W60" s="41">
+      <c r="W60" s="40">
         <v>55.4370957</v>
       </c>
-      <c r="X60" s="44">
+      <c r="X60" s="43">
         <v>42.534139077272727</v>
       </c>
       <c r="Y60">
@@ -7326,76 +7382,76 @@
       </c>
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="45">
+      <c r="B61" s="44">
         <v>8.8796043000000004</v>
       </c>
-      <c r="C61" s="43">
+      <c r="C61" s="42">
         <v>17.299583999999999</v>
       </c>
-      <c r="D61" s="45">
+      <c r="D61" s="44">
         <v>18.0936697</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="42">
         <v>31.628568899999998</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="44">
         <v>8.2987551999999987</v>
       </c>
-      <c r="G61" s="45">
+      <c r="G61" s="44">
         <v>9.8767108999999991</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H61" s="42">
         <v>23.908019700000001</v>
       </c>
-      <c r="I61" s="43">
+      <c r="I61" s="42">
         <v>25.517054000000002</v>
       </c>
-      <c r="J61" s="42">
+      <c r="J61" s="41">
         <v>18.356138699999999</v>
       </c>
-      <c r="K61" s="43">
+      <c r="K61" s="42">
         <v>23.6195688</v>
       </c>
-      <c r="L61" s="43">
+      <c r="L61" s="42">
         <v>29.240633500000001</v>
       </c>
-      <c r="M61" s="41">
+      <c r="M61" s="40">
         <v>32.365747400000004</v>
       </c>
-      <c r="N61" s="41">
+      <c r="N61" s="40">
         <v>77.805706900000004</v>
       </c>
-      <c r="O61" s="41">
+      <c r="O61" s="40">
         <v>79.322709599999996</v>
       </c>
-      <c r="P61" s="43">
+      <c r="P61" s="42">
         <v>4.4579712000000002</v>
       </c>
-      <c r="Q61" s="43">
+      <c r="Q61" s="42">
         <v>13.800182100000001</v>
       </c>
-      <c r="R61" s="45">
+      <c r="R61" s="44">
         <v>5.1209103999999996</v>
       </c>
-      <c r="S61" s="42">
+      <c r="S61" s="41">
         <v>18.802790299999998</v>
       </c>
-      <c r="T61" s="45">
+      <c r="T61" s="44">
         <v>12.5925925</v>
       </c>
-      <c r="U61" s="43">
+      <c r="U61" s="42">
         <v>22.517965500000003</v>
       </c>
-      <c r="V61" s="42">
+      <c r="V61" s="41">
         <v>15.8484251</v>
       </c>
-      <c r="W61" s="43">
+      <c r="W61" s="42">
         <v>19.347052500000004</v>
       </c>
-      <c r="X61" s="46">
+      <c r="X61" s="45">
         <v>23.486380054545453</v>
       </c>
       <c r="Y61">
@@ -7404,76 +7460,76 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="42">
         <v>35.736666200000002</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="41">
         <v>8.2585019000000006</v>
       </c>
-      <c r="D62" s="43">
+      <c r="D62" s="42">
         <v>25.091912899999997</v>
       </c>
-      <c r="E62" s="41">
+      <c r="E62" s="40">
         <v>35.516420200000006</v>
       </c>
-      <c r="F62" s="41">
+      <c r="F62" s="40">
         <v>53.4578147</v>
       </c>
-      <c r="G62" s="41">
+      <c r="G62" s="40">
         <v>41.338368700000004</v>
       </c>
-      <c r="H62" s="42">
+      <c r="H62" s="41">
         <v>21.494793599999998</v>
       </c>
-      <c r="I62" s="42">
+      <c r="I62" s="41">
         <v>17.929065800000004</v>
       </c>
-      <c r="J62" s="43">
+      <c r="J62" s="42">
         <v>28.5708287</v>
       </c>
-      <c r="K62" s="42">
+      <c r="K62" s="41">
         <v>22.834281099999998</v>
       </c>
-      <c r="L62" s="42">
+      <c r="L62" s="41">
         <v>15.926595899999999</v>
       </c>
-      <c r="M62" s="42">
+      <c r="M62" s="41">
         <v>24.600870799999999</v>
       </c>
-      <c r="N62" s="42">
+      <c r="N62" s="41">
         <v>7.0060069999999994</v>
       </c>
-      <c r="O62" s="42">
+      <c r="O62" s="41">
         <v>6.7805787999999989</v>
       </c>
-      <c r="P62" s="42">
+      <c r="P62" s="41">
         <v>4.3140863999999999</v>
       </c>
-      <c r="Q62" s="42">
+      <c r="Q62" s="41">
         <v>12.5530893</v>
       </c>
-      <c r="R62" s="43">
+      <c r="R62" s="42">
         <v>16.3584636</v>
       </c>
-      <c r="S62" s="43">
+      <c r="S62" s="42">
         <v>20.0848415</v>
       </c>
-      <c r="T62" s="41">
+      <c r="T62" s="40">
         <v>38.814814900000002</v>
       </c>
-      <c r="U62" s="42">
+      <c r="U62" s="41">
         <v>22.380218999999997</v>
       </c>
-      <c r="V62" s="43">
+      <c r="V62" s="42">
         <v>16.5073182</v>
       </c>
-      <c r="W62" s="42">
+      <c r="W62" s="41">
         <v>14.729739700000001</v>
       </c>
-      <c r="X62" s="47">
+      <c r="X62" s="46">
         <v>22.285694495454546</v>
       </c>
       <c r="Y62">
@@ -7482,76 +7538,76 @@
       </c>
     </row>
     <row r="63" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="42">
+      <c r="B63" s="41">
         <v>18.132068799999999</v>
       </c>
-      <c r="C63" s="45">
+      <c r="C63" s="44">
         <v>5.4193633999999999</v>
       </c>
-      <c r="D63" s="42">
+      <c r="D63" s="41">
         <v>24.629211399999999</v>
       </c>
-      <c r="E63" s="45">
+      <c r="E63" s="44">
         <v>4.7486170000000003</v>
       </c>
-      <c r="F63" s="43">
+      <c r="F63" s="42">
         <v>22.752420499999999</v>
       </c>
-      <c r="G63" s="42">
+      <c r="G63" s="41">
         <v>14.825481400000001</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="44">
         <v>7.0067591999999994</v>
       </c>
-      <c r="I63" s="48">
+      <c r="I63" s="47">
         <v>2.3801284999999996</v>
       </c>
-      <c r="J63" s="48">
+      <c r="J63" s="47">
         <v>6.8193106000000006</v>
       </c>
-      <c r="K63" s="45">
+      <c r="K63" s="44">
         <v>7.2494023000000007</v>
       </c>
-      <c r="L63" s="45">
+      <c r="L63" s="44">
         <v>15.252552699999999</v>
       </c>
-      <c r="M63" s="45">
+      <c r="M63" s="44">
         <v>11.2481858</v>
       </c>
-      <c r="N63" s="48">
+      <c r="N63" s="47">
         <v>0.23438249999999999</v>
       </c>
-      <c r="O63" s="48">
+      <c r="O63" s="47">
         <v>1.2115333000000001</v>
       </c>
-      <c r="P63" s="48">
+      <c r="P63" s="47">
         <v>1.406962</v>
       </c>
-      <c r="Q63" s="45">
+      <c r="Q63" s="44">
         <v>2.9060066999999998</v>
       </c>
-      <c r="R63" s="42">
+      <c r="R63" s="41">
         <v>12.944523499999999</v>
       </c>
-      <c r="S63" s="45">
+      <c r="S63" s="44">
         <v>5.3299396999999997</v>
       </c>
-      <c r="T63" s="42">
+      <c r="T63" s="41">
         <v>13.037037000000002</v>
       </c>
-      <c r="U63" s="45">
+      <c r="U63" s="44">
         <v>6.4724571999999991</v>
       </c>
-      <c r="V63" s="45">
+      <c r="V63" s="44">
         <v>7.7884712999999994</v>
       </c>
-      <c r="W63" s="45">
+      <c r="W63" s="44">
         <v>8.7008368000000011</v>
       </c>
-      <c r="X63" s="49">
+      <c r="X63" s="48">
         <v>9.113438709090909</v>
       </c>
       <c r="Y63">
@@ -7560,76 +7616,76 @@
       </c>
     </row>
     <row r="64" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="48">
+      <c r="B64" s="47">
         <v>1.3272136999999999</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="47">
         <v>1.9181125999999999</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="47">
         <v>4.5520421999999998</v>
       </c>
-      <c r="E64" s="48">
+      <c r="E64" s="47">
         <v>1.1897180999999999</v>
       </c>
-      <c r="F64" s="48">
+      <c r="F64" s="47">
         <v>0.48409409999999997</v>
       </c>
-      <c r="G64" s="48">
+      <c r="G64" s="47">
         <v>0.64452049999999994</v>
       </c>
-      <c r="H64" s="48">
+      <c r="H64" s="47">
         <v>3.2805078999999999</v>
       </c>
-      <c r="I64" s="45">
+      <c r="I64" s="44">
         <v>2.5380623</v>
       </c>
-      <c r="J64" s="45">
+      <c r="J64" s="44">
         <v>10.462898299999999</v>
       </c>
-      <c r="K64" s="48">
+      <c r="K64" s="47">
         <v>2.6159482000000001</v>
       </c>
-      <c r="L64" s="48">
+      <c r="L64" s="47">
         <v>1.3223589</v>
       </c>
-      <c r="M64" s="48">
+      <c r="M64" s="47">
         <v>3.2656022999999998</v>
       </c>
-      <c r="N64" s="45">
+      <c r="N64" s="44">
         <v>2.4448976999999998</v>
       </c>
-      <c r="O64" s="45">
+      <c r="O64" s="44">
         <v>2.0532964000000002</v>
       </c>
-      <c r="P64" s="45">
+      <c r="P64" s="44">
         <v>2.3032409</v>
       </c>
-      <c r="Q64" s="48">
+      <c r="Q64" s="47">
         <v>1.5436342999999999</v>
       </c>
-      <c r="R64" s="48">
+      <c r="R64" s="47">
         <v>0.99573260000000008</v>
       </c>
-      <c r="S64" s="48">
+      <c r="S64" s="47">
         <v>0.37707390000000002</v>
       </c>
-      <c r="T64" s="48">
+      <c r="T64" s="47">
         <v>8.5925925999999997</v>
       </c>
-      <c r="U64" s="48">
+      <c r="U64" s="47">
         <v>1.1757176</v>
       </c>
-      <c r="V64" s="48">
+      <c r="V64" s="47">
         <v>1.8951083</v>
       </c>
-      <c r="W64" s="48">
+      <c r="W64" s="47">
         <v>1.7852753999999997</v>
       </c>
-      <c r="X64" s="50">
+      <c r="X64" s="49">
         <v>2.5803476727272723</v>
       </c>
       <c r="Y64">
@@ -7638,186 +7694,186 @@
       </c>
     </row>
     <row r="65" spans="1:24">
-      <c r="A65" s="54"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
-      <c r="W65" s="55"/>
-      <c r="X65" s="55"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="54"/>
+      <c r="X65" s="54"/>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="54"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="55"/>
-      <c r="U66" s="55"/>
-      <c r="V66" s="55"/>
-      <c r="W66" s="55"/>
-      <c r="X66" s="55"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="54"/>
+      <c r="X66" s="54"/>
     </row>
     <row r="67" spans="1:24">
-      <c r="A67" s="54"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="55"/>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="55"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="55"/>
-      <c r="U67" s="55"/>
-      <c r="V67" s="55"/>
-      <c r="W67" s="55"/>
-      <c r="X67" s="55"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="54"/>
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
+      <c r="V67" s="54"/>
+      <c r="W67" s="54"/>
+      <c r="X67" s="54"/>
     </row>
     <row r="68" spans="1:24">
-      <c r="A68" s="54"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
-      <c r="W68" s="55"/>
-      <c r="X68" s="55"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="54"/>
+      <c r="W68" s="54"/>
+      <c r="X68" s="54"/>
     </row>
     <row r="69" spans="1:24">
-      <c r="A69" s="54"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="55"/>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="55"/>
-      <c r="T69" s="55"/>
-      <c r="U69" s="55"/>
-      <c r="V69" s="55"/>
-      <c r="W69" s="55"/>
-      <c r="X69" s="55"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+      <c r="S69" s="54"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="54"/>
+      <c r="X69" s="54"/>
     </row>
     <row r="70" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A70" s="54"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="55"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="55"/>
-      <c r="S70" s="55"/>
-      <c r="T70" s="55"/>
-      <c r="U70" s="55"/>
-      <c r="V70" s="55"/>
-      <c r="W70" s="55"/>
-      <c r="X70" s="55"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="54"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="54"/>
+      <c r="W70" s="54"/>
+      <c r="X70" s="54"/>
     </row>
     <row r="71" spans="1:24">
-      <c r="A71" s="54"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="55"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="55"/>
-      <c r="S71" s="55"/>
-      <c r="T71" s="55"/>
-      <c r="U71" s="55"/>
-      <c r="V71" s="55"/>
-      <c r="W71" s="55"/>
-      <c r="X71" s="55"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="54"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="54"/>
+      <c r="W71" s="54"/>
+      <c r="X71" s="54"/>
     </row>
     <row r="74" spans="1:24" hidden="1">
       <c r="B74" s="2" t="s">
@@ -7888,7 +7944,7 @@
       </c>
     </row>
     <row r="75" spans="1:24" hidden="1">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="39" t="s">
         <v>53</v>
       </c>
       <c r="B75">
@@ -7981,7 +8037,7 @@
       </c>
     </row>
     <row r="76" spans="1:24" hidden="1">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B76">
@@ -7989,7 +8045,7 @@
         <v>8.8796043000000005E-2</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="B76:W76" si="12">C61/100</f>
+        <f t="shared" ref="C76:W76" si="12">C61/100</f>
         <v>0.17299583999999998</v>
       </c>
       <c r="D76">
@@ -8074,7 +8130,7 @@
       </c>
     </row>
     <row r="77" spans="1:24" hidden="1">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B77">
@@ -8167,7 +8223,7 @@
       </c>
     </row>
     <row r="78" spans="1:24" hidden="1">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B78">
@@ -8260,7 +8316,7 @@
       </c>
     </row>
     <row r="79" spans="1:24" hidden="1">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B79">
@@ -8422,7 +8478,7 @@
       </c>
     </row>
     <row r="84" spans="1:23">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="39" t="s">
         <v>53</v>
       </c>
       <c r="B84">
@@ -8493,7 +8549,7 @@
       </c>
     </row>
     <row r="85" spans="1:23">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B85">
@@ -8586,7 +8642,7 @@
       </c>
     </row>
     <row r="86" spans="1:23">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B86">
@@ -8679,7 +8735,7 @@
       </c>
     </row>
     <row r="87" spans="1:23">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B87">
@@ -8772,7 +8828,7 @@
       </c>
     </row>
     <row r="88" spans="1:23">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B88">
@@ -8890,37 +8946,37 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9527,37 +9583,37 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9605,11 +9661,11 @@
         <f t="shared" si="1"/>
         <v>31.651081399999999</v>
       </c>
-      <c r="L19" s="51">
+      <c r="L19" s="50">
         <f t="shared" si="1"/>
         <v>15.589897000000001</v>
       </c>
-      <c r="M19" s="52">
+      <c r="M19" s="51">
         <f>AVERAGE(B19:L19)</f>
         <v>31.14304691818182</v>
       </c>
@@ -9658,11 +9714,11 @@
         <f t="shared" si="2"/>
         <v>25.2659074</v>
       </c>
-      <c r="L20" s="51">
+      <c r="L20" s="50">
         <f t="shared" si="2"/>
         <v>9.1665369000000005</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="52">
         <f t="shared" ref="M20:M32" si="3">AVERAGE(B20:L20)</f>
         <v>15.876607618181822</v>
       </c>
@@ -9711,11 +9767,11 @@
         <f t="shared" si="2"/>
         <v>3.9696739999999999</v>
       </c>
-      <c r="L21" s="51">
+      <c r="L21" s="50">
         <f t="shared" si="2"/>
         <v>10.6696399</v>
       </c>
-      <c r="M21" s="53">
+      <c r="M21" s="52">
         <f t="shared" si="3"/>
         <v>6.2866179999999989</v>
       </c>
@@ -9764,11 +9820,11 @@
         <f t="shared" si="2"/>
         <v>5.657063</v>
       </c>
-      <c r="L22" s="51">
+      <c r="L22" s="50">
         <f t="shared" si="2"/>
         <v>3.0572546999999997</v>
       </c>
-      <c r="M22" s="53">
+      <c r="M22" s="52">
         <f t="shared" si="3"/>
         <v>5.1365484636363643</v>
       </c>
@@ -9817,11 +9873,11 @@
         <f t="shared" si="2"/>
         <v>6.1593615999999995</v>
       </c>
-      <c r="L23" s="51">
+      <c r="L23" s="50">
         <f t="shared" si="2"/>
         <v>2.7587471999999997</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="52">
         <f t="shared" si="3"/>
         <v>5.8977303727272723</v>
       </c>
@@ -9870,11 +9926,11 @@
         <f t="shared" si="2"/>
         <v>0.29411760000000003</v>
       </c>
-      <c r="L24" s="51">
+      <c r="L24" s="50">
         <f t="shared" si="2"/>
         <v>0.59657009999999999</v>
       </c>
-      <c r="M24" s="53">
+      <c r="M24" s="52">
         <f t="shared" si="3"/>
         <v>0.32507035454545458</v>
       </c>
@@ -9923,11 +9979,11 @@
         <f t="shared" si="2"/>
         <v>5.9779542000000001</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="50">
         <f t="shared" si="2"/>
         <v>1.1928064999999999</v>
       </c>
-      <c r="M25" s="53">
+      <c r="M25" s="52">
         <f t="shared" si="3"/>
         <v>2.7402408999999999</v>
       </c>
@@ -9976,11 +10032,11 @@
         <f t="shared" si="2"/>
         <v>1.3388099</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="50">
         <f t="shared" si="2"/>
         <v>2.9088907000000002</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M26" s="52">
         <f t="shared" si="3"/>
         <v>2.7801559999999998</v>
       </c>
@@ -10029,11 +10085,11 @@
         <f t="shared" si="2"/>
         <v>8.8809900000000011E-2</v>
       </c>
-      <c r="L27" s="51">
+      <c r="L27" s="50">
         <f t="shared" si="2"/>
         <v>0.89552239999999994</v>
       </c>
-      <c r="M27" s="53">
+      <c r="M27" s="52">
         <f t="shared" si="3"/>
         <v>0.17224809999999999</v>
       </c>
@@ -10082,11 +10138,11 @@
         <f t="shared" si="2"/>
         <v>2.3338732000000002</v>
       </c>
-      <c r="L28" s="51">
+      <c r="L28" s="50">
         <f t="shared" si="2"/>
         <v>4.2502836000000004</v>
       </c>
-      <c r="M28" s="53">
+      <c r="M28" s="52">
         <f t="shared" si="3"/>
         <v>1.7955947181818182</v>
       </c>
@@ -10135,11 +10191,11 @@
         <f t="shared" si="2"/>
         <v>5.7850538</v>
       </c>
-      <c r="L29" s="51">
+      <c r="L29" s="50">
         <f t="shared" si="2"/>
         <v>6.6383433000000007</v>
       </c>
-      <c r="M29" s="53">
+      <c r="M29" s="52">
         <f t="shared" si="3"/>
         <v>3.6790339909090908</v>
       </c>
@@ -10188,11 +10244,11 @@
         <f t="shared" si="2"/>
         <v>1.1029412000000001</v>
       </c>
-      <c r="L30" s="51">
+      <c r="L30" s="50">
         <f t="shared" si="2"/>
         <v>20.720911099999999</v>
       </c>
-      <c r="M30" s="53">
+      <c r="M30" s="52">
         <f t="shared" si="3"/>
         <v>6.5052741999999997</v>
       </c>
@@ -10241,11 +10297,11 @@
         <f t="shared" si="2"/>
         <v>4.2551719000000006</v>
       </c>
-      <c r="L31" s="51">
+      <c r="L31" s="50">
         <f t="shared" si="2"/>
         <v>12.9052205</v>
       </c>
-      <c r="M31" s="53">
+      <c r="M31" s="52">
         <f t="shared" si="3"/>
         <v>10.22010629090909</v>
       </c>
@@ -10294,7 +10350,7 @@
         <f t="shared" si="2"/>
         <v>6.1201808</v>
       </c>
-      <c r="L32" s="51">
+      <c r="L32" s="50">
         <f t="shared" si="2"/>
         <v>8.6493760999999996</v>
       </c>
@@ -11060,37 +11116,37 @@
     </row>
     <row r="56" spans="1:13" hidden="1"/>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="E58" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="F58" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="40" t="s">
+      <c r="G58" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="40" t="s">
+      <c r="J58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K58" s="40" t="s">
+      <c r="K58" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L58" s="40" t="s">
+      <c r="L58" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11131,7 +11187,7 @@
       <c r="L59" s="19">
         <v>38.483328499999999</v>
       </c>
-      <c r="M59" s="35">
+      <c r="M59" s="34">
         <f>AVERAGE(B59:L59)</f>
         <v>58.442820999999988</v>
       </c>
@@ -11173,7 +11229,7 @@
       <c r="L60" s="20">
         <v>42.275507699999999</v>
       </c>
-      <c r="M60" s="36">
+      <c r="M60" s="35">
         <f t="shared" ref="M60:M63" si="7">AVERAGE(B60:L60)</f>
         <v>24.167104527272727</v>
       </c>
@@ -11215,7 +11271,7 @@
       <c r="L61" s="21">
         <v>8.3525369000000005</v>
       </c>
-      <c r="M61" s="37">
+      <c r="M61" s="36">
         <f t="shared" si="7"/>
         <v>11.915445727272726</v>
       </c>
@@ -11257,7 +11313,7 @@
       <c r="L62" s="22">
         <v>6.6383433000000007</v>
       </c>
-      <c r="M62" s="38">
+      <c r="M62" s="37">
         <f t="shared" si="7"/>
         <v>3.6790339909090908</v>
       </c>
@@ -11299,7 +11355,7 @@
       <c r="L63" s="23">
         <v>4.2502836000000004</v>
       </c>
-      <c r="M63" s="39">
+      <c r="M63" s="38">
         <f t="shared" si="7"/>
         <v>1.7955947181818182</v>
       </c>
@@ -11312,10 +11368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G62" activeCellId="2" sqref="B62:E62 F61 G62:I62"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11716,7 +11772,29 @@
         <v>1.4048929999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
         <v>4</v>
@@ -12235,7 +12313,29 @@
         <v>1.9425438142857145</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
         <v>4</v>
@@ -12622,7 +12722,7 @@
         <v>0.19797512857142857</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -12633,7 +12733,7 @@
       <c r="H49" s="24"/>
       <c r="I49" s="26"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1">
+    <row r="50" spans="1:10" ht="15.75" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>14</v>
       </c>
@@ -12662,7 +12762,7 @@
         <v>0.92067815714285728</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -12673,7 +12773,7 @@
       <c r="H51" s="24"/>
       <c r="I51" s="26"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" s="5" t="s">
         <v>15</v>
       </c>
@@ -12702,7 +12802,7 @@
         <v>0.79305515714285713</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" s="5" t="s">
         <v>16</v>
       </c>
@@ -12731,7 +12831,7 @@
         <v>1.1406772714285711</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>17</v>
       </c>
@@ -12760,7 +12860,7 @@
         <v>1.9425438142857145</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -12797,8 +12897,36 @@
         <v>3.8762762428571427</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1">
+    <row r="57" spans="1:10">
+      <c r="B57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -12823,11 +12951,15 @@
       <c r="H58" s="20">
         <v>96.430544600000005</v>
       </c>
-      <c r="I58" s="29">
+      <c r="I58" s="56">
         <v>93.353115271428578</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1">
+      <c r="J58" s="2">
+        <f>SUM(B58:H58)</f>
+        <v>653.47180689999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>55</v>
       </c>
@@ -12852,11 +12984,15 @@
       <c r="H59" s="19">
         <v>2.5122336000000001</v>
       </c>
-      <c r="I59" s="30">
+      <c r="I59" s="57">
         <v>3.8762762428571427</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1">
+      <c r="J59" s="2">
+        <f t="shared" ref="J59:J62" si="17">SUM(B59:H59)</f>
+        <v>27.1339337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1">
       <c r="A60" s="5" t="s">
         <v>54</v>
       </c>
@@ -12881,11 +13017,15 @@
       <c r="H60" s="21">
         <v>0.35477510000000001</v>
       </c>
-      <c r="I60" s="31">
+      <c r="I60" s="58">
         <v>1.6519552285714287</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1">
+      <c r="J60" s="2">
+        <f t="shared" si="17"/>
+        <v>11.563686599999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>14</v>
       </c>
@@ -12910,11 +13050,15 @@
       <c r="H61" s="22">
         <v>0.2833465</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="59">
         <v>0.92067815714285728</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1">
+      <c r="J61" s="2">
+        <f t="shared" si="17"/>
+        <v>6.4447471000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
@@ -12939,8 +13083,1081 @@
       <c r="H62" s="23">
         <v>0.41910020000000003</v>
       </c>
-      <c r="I62" s="34">
+      <c r="I62" s="60">
         <v>0.19797512857142857</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="17"/>
+        <v>1.3858258999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="B65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66">
+        <f>B58/100</f>
+        <v>0.97158927600000011</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:H66" si="18">C58/100</f>
+        <v>0.96023275299999977</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="18"/>
+        <v>0.97680700499999995</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="18"/>
+        <v>0.94219984400000012</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="18"/>
+        <v>0.9770104959999999</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="18"/>
+        <v>0.7425732490000001</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="18"/>
+        <v>0.96430544600000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67">
+        <f>B59/(100-B58)</f>
+        <v>0.19032682870031839</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:H67" si="19">C59/(100-C58)</f>
+        <v>0.57063965227464419</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="19"/>
+        <v>0.35222717031586487</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="19"/>
+        <v>0.7102959549105734</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="19"/>
+        <v>0.57574982913941708</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="19"/>
+        <v>0.60466243852023016</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="19"/>
+        <v>0.70381425693118427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68">
+        <f>B60/(100-B58-B59)</f>
+        <v>0.46985569655548154</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:H68" si="20">C60/(100-C58-C59)</f>
+        <v>0.25064319678509372</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="20"/>
+        <v>0.22604253307021296</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="20"/>
+        <v>0.58452156797944088</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="20"/>
+        <v>0.78550000661313779</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="20"/>
+        <v>0.74831359715526224</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="20"/>
+        <v>0.33557300842642629</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <f>B61/(100-B58-B59-B60)</f>
+        <v>0.72222221311111867</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:H69" si="21">C61/(100-C58-C59-C60)</f>
+        <v>1.0000001563125462</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="21"/>
+        <v>0.82368752201624829</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="21"/>
+        <v>0.89733110962936435</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="21"/>
+        <v>0.33240076995031648</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="21"/>
+        <v>0.91728648460493745</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="21"/>
+        <v>0.40337081802790431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <f>B62/(100-B58-B59-B60-B61)</f>
+        <v>1.0000000000000377</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:H70" si="22">C62/(100-C58-C59-C60-C61)</f>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="22"/>
+        <v>0.99999902444830291</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="22"/>
+        <v>1.0000028000069352</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="22"/>
+        <v>0.99999999999993083</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="22"/>
+        <v>1.0000000000000731</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="22"/>
+        <v>1.0000000000000113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="8"/>
+      <c r="B73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.92960295400000004</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.90040619</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.95109472399999995</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.92817940700000001</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0.96654423</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0.63913414800000001</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0.95247040299999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="4">
+        <v>2.7093905000000001E-2</v>
+      </c>
+      <c r="C75" s="4">
+        <v>5.6182890000000003E-3</v>
+      </c>
+      <c r="D75" s="4">
+        <v>6.119083E-3</v>
+      </c>
+      <c r="E75" s="4">
+        <v>8.3857340000000006E-3</v>
+      </c>
+      <c r="F75" s="4">
+        <v>8.3741830000000003E-3</v>
+      </c>
+      <c r="G75" s="4">
+        <v>4.7093022999999998E-2</v>
+      </c>
+      <c r="H75" s="4">
+        <v>4.8342539999999996E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="4">
+        <v>3.3748020000000001E-3</v>
+      </c>
+      <c r="C76" s="4">
+        <v>4.9215407000000003E-2</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1.5399124E-2</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1.4020440000000001E-3</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>5.1264616999999998E-2</v>
+      </c>
+      <c r="H76" s="4">
+        <v>4.2383580000000002E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1.1517615E-2</v>
+      </c>
+      <c r="C77" s="4">
+        <v>4.9928669999999998E-3</v>
+      </c>
+      <c r="D77" s="4">
+        <v>4.1940739999999999E-3</v>
+      </c>
+      <c r="E77" s="4">
+        <v>4.2326589999999997E-3</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2.0920829999999998E-3</v>
+      </c>
+      <c r="G77" s="4">
+        <v>5.0814609999999998E-3</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2.7624310000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="4">
+        <f>SUM(B74:B77)</f>
+        <v>0.971589276</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" ref="C78:H78" si="23">SUM(C74:C77)</f>
+        <v>0.96023275300000011</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="23"/>
+        <v>0.97680700499999995</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="23"/>
+        <v>0.94219984400000001</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" si="23"/>
+        <v>0.97701049600000001</v>
+      </c>
+      <c r="G78" s="4">
+        <f t="shared" si="23"/>
+        <v>0.74257324899999988</v>
+      </c>
+      <c r="H78" s="4">
+        <f t="shared" si="23"/>
+        <v>0.96430544600000001</v>
+      </c>
+      <c r="I78" s="1">
+        <f>SUM(B78:H78)</f>
+        <v>6.5347180689999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="4">
+        <v>6.0848289999999999E-3</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1.4265339999999999E-3</v>
+      </c>
+      <c r="D80" s="4">
+        <v>2.0188430000000002E-3</v>
+      </c>
+      <c r="E80" s="4">
+        <v>5.5816470000000003E-3</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2.0920829999999998E-3</v>
+      </c>
+      <c r="G80" s="4">
+        <v>4.1239653000000001E-2</v>
+      </c>
+      <c r="H80" s="4">
+        <v>2.1191790000000001E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4">
+        <v>7.1326699999999996E-4</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1.550388E-3</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="4">
+        <v>3.3811679999999999E-3</v>
+      </c>
+      <c r="C82" s="4">
+        <v>7.1326699999999996E-4</v>
+      </c>
+      <c r="D82" s="4">
+        <v>7.0422499999999995E-4</v>
+      </c>
+      <c r="E82" s="4">
+        <v>2.089802E-3</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1.390821E-3</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1.7156089999999999E-2</v>
+      </c>
+      <c r="H82" s="4">
+        <v>7.1428599999999996E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1.342282E-3</v>
+      </c>
+      <c r="C83" s="4">
+        <v>7.1326699999999996E-4</v>
+      </c>
+      <c r="D83" s="4">
+        <v>6.7294800000000004E-4</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2.1163290000000001E-3</v>
+      </c>
+      <c r="F83" s="4">
+        <v>4.1783139999999998E-3</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1.6210090999999999E-2</v>
+      </c>
+      <c r="H83" s="4">
+        <v>7.1428599999999996E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4">
+        <v>7.1326699999999996E-4</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="4">
+        <f>SUM(B80:B84)</f>
+        <v>1.0808279E-2</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" ref="C85:H85" si="24">SUM(C80:C84)</f>
+        <v>4.2796019999999995E-3</v>
+      </c>
+      <c r="D85" s="4">
+        <f t="shared" si="24"/>
+        <v>3.3960160000000004E-3</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="24"/>
+        <v>9.7877780000000005E-3</v>
+      </c>
+      <c r="F85" s="4">
+        <f t="shared" si="24"/>
+        <v>7.6612179999999992E-3</v>
+      </c>
+      <c r="G85" s="4">
+        <f t="shared" si="24"/>
+        <v>7.6156221999999996E-2</v>
+      </c>
+      <c r="H85" s="4">
+        <f t="shared" si="24"/>
+        <v>3.547751E-3</v>
+      </c>
+      <c r="I85" s="1">
+        <f>SUM(B85:H85)</f>
+        <v>0.11563686599999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="5"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="4">
+        <v>3.3875340000000002E-3</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2.0501199999999999E-3</v>
+      </c>
+      <c r="E87" s="4">
+        <v>7.1428599999999996E-4</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1.396673E-3</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2.1186439999999998E-3</v>
+      </c>
+      <c r="H87" s="4">
+        <v>4.1910020000000001E-3</v>
+      </c>
+      <c r="I87" s="1">
+        <f>SUM(B87:H87)</f>
+        <v>1.3858259000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="5"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="4">
+        <v>8.8075879999999999E-3</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1.2794879E-2</v>
+      </c>
+      <c r="D89" s="4">
+        <v>9.5776539999999997E-3</v>
+      </c>
+      <c r="E89" s="4">
+        <v>6.242877E-3</v>
+      </c>
+      <c r="F89" s="4">
+        <v>6.9541000000000004E-4</v>
+      </c>
+      <c r="G89" s="4">
+        <v>2.3495597999999999E-2</v>
+      </c>
+      <c r="H89" s="4">
+        <v>2.8334649999999999E-3</v>
+      </c>
+      <c r="I89" s="1">
+        <f>SUM(B89:H89)</f>
+        <v>6.4447470999999992E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="5"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="4">
+        <v>5.7061339999999999E-3</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1.3458949999999999E-3</v>
+      </c>
+      <c r="E91" s="4">
+        <v>8.3326779999999996E-3</v>
+      </c>
+      <c r="F91" s="4">
+        <v>4.1841659999999996E-3</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1.8466692999999999E-2</v>
+      </c>
+      <c r="H91" s="4">
+        <v>1.7478295000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="4">
+        <v>1.348648E-3</v>
+      </c>
+      <c r="C92" s="4">
+        <v>7.0887449999999996E-3</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4.7731880000000003E-3</v>
+      </c>
+      <c r="E92" s="4">
+        <v>2.9204166E-2</v>
+      </c>
+      <c r="F92" s="4">
+        <v>3.4770510000000001E-3</v>
+      </c>
+      <c r="G92" s="4">
+        <v>2.7716463E-2</v>
+      </c>
+      <c r="H92" s="4">
+        <v>6.2391479999999999E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="4">
+        <v>4.0586750000000003E-3</v>
+      </c>
+      <c r="C93" s="4">
+        <v>9.897889E-3</v>
+      </c>
+      <c r="D93" s="4">
+        <v>2.0501199999999999E-3</v>
+      </c>
+      <c r="E93" s="4">
+        <v>3.518373E-3</v>
+      </c>
+      <c r="F93" s="4">
+        <v>5.5749859999999997E-3</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0.109473131</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1.4048929999999999E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" s="61">
+        <f>SUM(B91:B93)</f>
+        <v>5.4073230000000003E-3</v>
+      </c>
+      <c r="C94" s="61">
+        <f t="shared" ref="C94:H94" si="25">SUM(C91:C93)</f>
+        <v>2.2692767999999999E-2</v>
+      </c>
+      <c r="D94" s="61">
+        <f t="shared" si="25"/>
+        <v>8.1692029999999999E-3</v>
+      </c>
+      <c r="E94" s="61">
+        <f t="shared" si="25"/>
+        <v>4.1055216999999998E-2</v>
+      </c>
+      <c r="F94" s="61">
+        <f t="shared" si="25"/>
+        <v>1.3236202999999998E-2</v>
+      </c>
+      <c r="G94" s="61">
+        <f t="shared" si="25"/>
+        <v>0.155656287</v>
+      </c>
+      <c r="H94" s="61">
+        <f t="shared" si="25"/>
+        <v>2.5122336000000002E-2</v>
+      </c>
+      <c r="I94" s="1">
+        <f>SUM(B94:H94)</f>
+        <v>0.27133933700000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="62">
+        <v>0.971589276</v>
+      </c>
+      <c r="C98" s="62">
+        <v>0.96023275300000011</v>
+      </c>
+      <c r="D98" s="62">
+        <v>0.97680700499999995</v>
+      </c>
+      <c r="E98" s="62">
+        <v>0.94219984400000001</v>
+      </c>
+      <c r="F98" s="62">
+        <v>0.97701049600000001</v>
+      </c>
+      <c r="G98" s="62">
+        <v>0.74257324899999988</v>
+      </c>
+      <c r="H98" s="62">
+        <v>0.96430544600000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" s="63">
+        <v>5.4073230000000003E-3</v>
+      </c>
+      <c r="C99" s="63">
+        <v>2.2692767999999999E-2</v>
+      </c>
+      <c r="D99" s="63">
+        <v>8.1692029999999999E-3</v>
+      </c>
+      <c r="E99" s="63">
+        <v>4.1055216999999998E-2</v>
+      </c>
+      <c r="F99" s="63">
+        <v>1.3236202999999998E-2</v>
+      </c>
+      <c r="G99" s="63">
+        <v>0.155656287</v>
+      </c>
+      <c r="H99" s="63">
+        <v>2.5122336000000002E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" s="62">
+        <v>1.0808279E-2</v>
+      </c>
+      <c r="C100" s="62">
+        <v>4.2796019999999995E-3</v>
+      </c>
+      <c r="D100" s="62">
+        <v>3.3960160000000004E-3</v>
+      </c>
+      <c r="E100" s="62">
+        <v>9.7877780000000005E-3</v>
+      </c>
+      <c r="F100" s="62">
+        <v>7.6612179999999992E-3</v>
+      </c>
+      <c r="G100" s="62">
+        <v>7.6156221999999996E-2</v>
+      </c>
+      <c r="H100" s="62">
+        <v>3.547751E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="62">
+        <v>8.8075879999999999E-3</v>
+      </c>
+      <c r="C101" s="62">
+        <v>1.2794879E-2</v>
+      </c>
+      <c r="D101" s="62">
+        <v>9.5776539999999997E-3</v>
+      </c>
+      <c r="E101" s="62">
+        <v>6.242877E-3</v>
+      </c>
+      <c r="F101" s="62">
+        <v>6.9541000000000004E-4</v>
+      </c>
+      <c r="G101" s="62">
+        <v>2.3495597999999999E-2</v>
+      </c>
+      <c r="H101" s="62">
+        <v>2.8334649999999999E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="62">
+        <v>3.3875340000000002E-3</v>
+      </c>
+      <c r="C102" s="62">
+        <v>0</v>
+      </c>
+      <c r="D102" s="62">
+        <v>2.0501199999999999E-3</v>
+      </c>
+      <c r="E102" s="62">
+        <v>7.1428599999999996E-4</v>
+      </c>
+      <c r="F102" s="62">
+        <v>1.396673E-3</v>
+      </c>
+      <c r="G102" s="62">
+        <v>2.1186439999999998E-3</v>
+      </c>
+      <c r="H102" s="62">
+        <v>4.1910020000000001E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" s="62">
+        <v>0.971589276</v>
+      </c>
+      <c r="C105" s="62">
+        <v>0.96023275300000011</v>
+      </c>
+      <c r="D105" s="62">
+        <v>0.97680700499999995</v>
+      </c>
+      <c r="E105" s="62">
+        <v>0.94219984400000001</v>
+      </c>
+      <c r="F105" s="62">
+        <v>0.97701049600000001</v>
+      </c>
+      <c r="G105" s="62">
+        <v>0.74257324899999988</v>
+      </c>
+      <c r="H105" s="62">
+        <v>0.96430544600000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="64">
+        <f>B99/(1-B98)</f>
+        <v>0.19032682870031756</v>
+      </c>
+      <c r="C106" s="64">
+        <f t="shared" ref="C106:H106" si="26">C99/(1-C98)</f>
+        <v>0.57063965227464852</v>
+      </c>
+      <c r="D106" s="64">
+        <f t="shared" si="26"/>
+        <v>0.35222717031586404</v>
+      </c>
+      <c r="E106" s="64">
+        <f t="shared" si="26"/>
+        <v>0.71029595491057163</v>
+      </c>
+      <c r="F106" s="64">
+        <f t="shared" si="26"/>
+        <v>0.57574982913941952</v>
+      </c>
+      <c r="G106" s="64">
+        <f t="shared" si="26"/>
+        <v>0.60466243852022949</v>
+      </c>
+      <c r="H106" s="64">
+        <f t="shared" si="26"/>
+        <v>0.70381425693118371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="64">
+        <f>B100/(1-B98-B99)</f>
+        <v>0.46985569655547893</v>
+      </c>
+      <c r="C107" s="64">
+        <f t="shared" ref="C107:H107" si="27">C100/(1-C98-C99)</f>
+        <v>0.25064319678509811</v>
+      </c>
+      <c r="D107" s="64">
+        <f t="shared" si="27"/>
+        <v>0.22604253307021219</v>
+      </c>
+      <c r="E107" s="64">
+        <f t="shared" si="27"/>
+        <v>0.58452156797943566</v>
+      </c>
+      <c r="F107" s="64">
+        <f t="shared" si="27"/>
+        <v>0.7855000066131459</v>
+      </c>
+      <c r="G107" s="64">
+        <f t="shared" si="27"/>
+        <v>0.74831359715526014</v>
+      </c>
+      <c r="H107" s="64">
+        <f t="shared" si="27"/>
+        <v>0.33557300842642523</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="64">
+        <f>B101/(1-B98-B99-B100)</f>
+        <v>0.72222221311111123</v>
+      </c>
+      <c r="C108" s="64">
+        <f t="shared" ref="C108:H108" si="28">C101/(1-C98-C99-C100)</f>
+        <v>1.0000001563125698</v>
+      </c>
+      <c r="D108" s="64">
+        <f t="shared" si="28"/>
+        <v>0.8236875220162444</v>
+      </c>
+      <c r="E108" s="64">
+        <f t="shared" si="28"/>
+        <v>0.89733110962934537</v>
+      </c>
+      <c r="F108" s="64">
+        <f t="shared" si="28"/>
+        <v>0.33240076995033241</v>
+      </c>
+      <c r="G108" s="64">
+        <f t="shared" si="28"/>
+        <v>0.91728648460492757</v>
+      </c>
+      <c r="H108" s="64">
+        <f t="shared" si="28"/>
+        <v>0.40337081802790231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="64">
+        <f>B102/(1-B98-B99-B100-B101)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C109" s="64">
+        <f t="shared" ref="C109:H109" si="29">C102/(1-C98-C99-C100-C101)</f>
+        <v>0</v>
+      </c>
+      <c r="D109" s="64">
+        <f t="shared" si="29"/>
+        <v>0.99999902444827671</v>
+      </c>
+      <c r="E109" s="64">
+        <f t="shared" si="29"/>
+        <v>1.0000028000067298</v>
+      </c>
+      <c r="F109" s="64">
+        <f t="shared" si="29"/>
+        <v>1.0000000000000027</v>
+      </c>
+      <c r="G109" s="64">
+        <f t="shared" si="29"/>
+        <v>0.99999999999994293</v>
+      </c>
+      <c r="H109" s="64">
+        <f t="shared" si="29"/>
+        <v>1.0000000000000031</v>
       </c>
     </row>
   </sheetData>
@@ -14217,7 +15434,7 @@
       <c r="F62" s="21">
         <v>3.2042028999999999</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="31">
         <v>14.829309460000001</v>
       </c>
     </row>
@@ -14240,7 +15457,7 @@
       <c r="F63" s="22">
         <v>0.56382529999999997</v>
       </c>
-      <c r="G63" s="33">
+      <c r="G63" s="32">
         <v>1.51435462</v>
       </c>
     </row>
@@ -14263,7 +15480,7 @@
       <c r="F64" s="23">
         <v>0.45385210000000004</v>
       </c>
-      <c r="G64" s="34">
+      <c r="G64" s="33">
         <v>0.7408009000000001</v>
       </c>
     </row>
@@ -16586,7 +17803,7 @@
       <c r="L62" s="21">
         <v>9.7238740999999997</v>
       </c>
-      <c r="M62" s="32">
+      <c r="M62" s="31">
         <v>16.571944990909095</v>
       </c>
     </row>
@@ -16627,7 +17844,7 @@
       <c r="L63" s="22">
         <v>4.9571213000000007</v>
       </c>
-      <c r="M63" s="33">
+      <c r="M63" s="32">
         <v>5.4017283818181818</v>
       </c>
     </row>
@@ -16668,7 +17885,7 @@
       <c r="L64" s="23">
         <v>3.3219133999999997</v>
       </c>
-      <c r="M64" s="34">
+      <c r="M64" s="33">
         <v>2.2490425636363636</v>
       </c>
     </row>
